--- a/figures/meldna/table 1 Patient characteristics at listing.xlsx
+++ b/figures/meldna/table 1 Patient characteristics at listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\index\figures\meldna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\Thesis in R\figures\meldna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F14A3-AC63-49FC-9B96-D4F121E0DB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3AFA3-8BBD-49A7-A7D9-E6F5AF58A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{0406451B-AD2E-40FD-B50F-F99FB5D21DCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{0406451B-AD2E-40FD-B50F-F99FB5D21DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -94,12 +94,6 @@
     <t>16 (11-21)</t>
   </si>
   <si>
-    <t>Bilirubine</t>
-  </si>
-  <si>
-    <t>Creatinin</t>
-  </si>
-  <si>
     <t>INR</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>709 (13.6)</t>
   </si>
   <si>
-    <t>355 (6.8)</t>
-  </si>
-  <si>
     <t>2306 (44.2)</t>
   </si>
   <si>
@@ -290,6 +281,15 @@
   </si>
   <si>
     <t>&gt;=135</t>
+  </si>
+  <si>
+    <t>Bilirubin</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>358 (6.8)</t>
   </si>
 </sst>
 </file>
@@ -430,49 +430,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494EBDC2-5EAF-495E-8EC8-5CF788F4B091}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,346 +802,330 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="21"/>
+      <c r="B6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="19"/>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="14"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="14"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="21"/>
+      <c r="B10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="19"/>
+      <c r="B12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="19"/>
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="17"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B19:C19"/>
@@ -1154,11 +1138,27 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DFA6A9-783B-447D-AFFF-6009FCBA27E7}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,401 +1180,435 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="21"/>
+      <c r="B8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="14"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="19"/>
+      <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="21"/>
+      <c r="B13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="19"/>
+      <c r="B14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="17"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B2:C2"/>
@@ -1588,40 +1622,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/figures/meldna/table 1 Patient characteristics at listing.xlsx
+++ b/figures/meldna/table 1 Patient characteristics at listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\Thesis in R\figures\meldna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\index\figures\meldna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3AFA3-8BBD-49A7-A7D9-E6F5AF58A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F14A3-AC63-49FC-9B96-D4F121E0DB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{0406451B-AD2E-40FD-B50F-F99FB5D21DCC}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{0406451B-AD2E-40FD-B50F-F99FB5D21DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,12 @@
     <t>16 (11-21)</t>
   </si>
   <si>
+    <t>Bilirubine</t>
+  </si>
+  <si>
+    <t>Creatinin</t>
+  </si>
+  <si>
     <t>INR</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
     <t>709 (13.6)</t>
   </si>
   <si>
+    <t>355 (6.8)</t>
+  </si>
+  <si>
     <t>2306 (44.2)</t>
   </si>
   <si>
@@ -281,15 +290,6 @@
   </si>
   <si>
     <t>&gt;=135</t>
-  </si>
-  <si>
-    <t>Bilirubin</t>
-  </si>
-  <si>
-    <t>Creatinine</t>
-  </si>
-  <si>
-    <t>358 (6.8)</t>
   </si>
 </sst>
 </file>
@@ -430,37 +430,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,10 +472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494EBDC2-5EAF-495E-8EC8-5CF788F4B091}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,330 +802,346 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="18"/>
+      <c r="B6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="21"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="18"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="22"/>
+        <v>78</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B19:C19"/>
@@ -1138,27 +1154,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DFA6A9-783B-447D-AFFF-6009FCBA27E7}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,435 +1180,401 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="B8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="21"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="B10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="19"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="19"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="18"/>
+      <c r="B13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="14"/>
+      <c r="B15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="B16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="18"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B2:C2"/>
@@ -1622,6 +1588,40 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
